--- a/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
+++ b/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_TestLogin" sheetId="5" r:id="rId1"/>
+    <sheet name="TC02_TestSendARequest" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="birth_day">#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Password</t>
   </si>
@@ -43,13 +44,58 @@
   </si>
   <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>Subject header</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Subject Source</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>user10@gmail.com</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cong hoa xa hoi chu nghia viet nam</t>
+  </si>
+  <si>
+    <t>C:/testing.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,10 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -406,4 +459,100 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1100012</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>$L$2:$L$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
+++ b/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_TestLogin" sheetId="5" r:id="rId1"/>
     <sheet name="TC02_TestSendARequest" sheetId="6" r:id="rId2"/>
+    <sheet name="TC03_TestSignUpAnAccount" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="birth_day">#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Password</t>
   </si>
@@ -89,6 +90,48 @@
   </si>
   <si>
     <t>C:/testing.txt</t>
+  </si>
+  <si>
+    <t>Email Registered</t>
+  </si>
+  <si>
+    <t>user10015@gmail.com</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Personal First Name</t>
+  </si>
+  <si>
+    <t>Dinh</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>day of Birth</t>
+  </si>
+  <si>
+    <t>month of Birth</t>
+  </si>
+  <si>
+    <t>year of Birth</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -465,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,4 +598,837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>123456789</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1986</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="24" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="25" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="26" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="27" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="28" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="29" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="30" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="31" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="32" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="73" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="76" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="84" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="89" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="92" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="100" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="105" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="108" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="113" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="116" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$N$2:$N$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$O$2:$O$32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$P$2:$P$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>$Q$2:$Q$120</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
+++ b/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkingProjects\workspace\Ecommercialwebsite\com.tutorial.Automation.Ecomercesite\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkingProjects\workspace\Ecommercialwebsite\EcommercialProject\com.tutorial.Automation.Ecomercesite\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_TestLogin" sheetId="5" r:id="rId1"/>
     <sheet name="TC02_TestSendARequest" sheetId="6" r:id="rId2"/>
     <sheet name="TC03_TestSignUpAnAccount" sheetId="7" r:id="rId3"/>
+    <sheet name="TC04_SearchProduct" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="birth_day">#REF!</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Password</t>
   </si>
@@ -132,12 +133,33 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Search Item</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Image source</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/img/p/7/7-home_default.jpg</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>$27.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,11 +204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1431,4 +1455,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
+++ b/com.tutorial.Automation.Ecomercesite/src/test/resources/Data/DataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_TestLogin" sheetId="5" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
